--- a/домашка 14.11.2018.xlsx
+++ b/домашка 14.11.2018.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lord_\Documents\GitHub\QAtesterZoya\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F01EED-16E5-4CD4-8282-F213A2682DDD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23895" windowHeight="9975"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23895" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t>№1</t>
   </si>
@@ -132,9 +138,6 @@
     <t>телефон для пожилых</t>
   </si>
   <si>
-    <t>проверить корректность работы фильтра по типу мобильного телефона</t>
-  </si>
-  <si>
     <t>фильтр по типу</t>
   </si>
   <si>
@@ -238,13 +241,48 @@
   </si>
   <si>
     <t>в разделе "коротко о товаре" указан объем оперативной памяти 8 Гб</t>
+  </si>
+  <si>
+    <r>
+      <t>открыть браузер, зайти в Яндекс маркет, найти страницу каталога "мобильные телефоны".</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Проверить данный тест-кейс на трех наборах данных: 1-20000, 20001 - 100000 и 100001 - 300000</t>
+    </r>
+  </si>
+  <si>
+    <t>В целом сами тест-кейсы нормальные, но вот по граничным значениям - попробуй поработать так же с ценой. Там как раз есть где развернуться, т.к. есть минимальная цена (например 500), есть максимальная цена (например 500000) и внутри и снаружи этих граничных значений можно пописать тесты. И до кучи можно нули проверить.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">проверить корректность работы фильтра по типу </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мобильного телефона</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,13 +300,44 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -335,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -352,6 +421,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -370,16 +445,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -388,6 +472,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -434,7 +526,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,9 +558,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,6 +610,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -675,14 +803,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B27" sqref="B27:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" style="1" customWidth="1"/>
@@ -692,772 +820,788 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="2" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B13" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="2" t="s">
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="B30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="B31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="59.25" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="D44" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B45" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="45">
-      <c r="A28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" ht="59.25" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" ht="60">
-      <c r="A41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" ht="59.25" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="8" t="s">
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="4" t="s">
+    </row>
+    <row r="55" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="8" t="s">
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5" ht="60">
-      <c r="A56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" ht="30">
-      <c r="A57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" ht="59.25" customHeight="1">
-      <c r="A58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="D58" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B61" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3" t="s">
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B64" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="3" t="s">
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="4" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B65" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="4" t="s">
+    </row>
+    <row r="66" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-    </row>
-    <row r="65" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B67" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3" t="s">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D68" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:5" ht="60">
-      <c r="A67" s="3" t="s">
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:5" ht="30">
-      <c r="A68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:5" ht="59.25" customHeight="1">
-      <c r="A69" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="B69" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="D69" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B72" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
+  <mergeCells count="60">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1465,24 +1609,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
